--- a/Health/Covid19/HealthCareFacilitiesSG.xlsx
+++ b/Health/Covid19/HealthCareFacilitiesSG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BAVP Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F4FDC6-F93C-4E6F-A339-CB4B14F66B01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EA57EF-B3F2-4EC5-9955-4F814A2EC22A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A75E4CCB-0515-46AF-865D-9FCABA4166B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A75E4CCB-0515-46AF-865D-9FCABA4166B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Number of Beds In SG" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Hospital (Isolation Bed)</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>*May go up to 10,000*</t>
   </si>
   <si>
     <t>Singapore Airlines (SIA) cabin crew</t>
@@ -137,18 +134,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,10 +160,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615B0E85-E2EC-4483-AC49-6BEDFE0B6905}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,9 +520,7 @@
       <c r="B4" s="1">
         <v>2000</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -558,10 +547,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <f>SUM(B2:B7)</f>
         <v>18386</v>
       </c>
@@ -576,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ABAF8D-C8AA-4408-A9DD-98419F8955F6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -588,15 +577,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
+      <c r="A2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -604,7 +593,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>800</v>
@@ -612,7 +601,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -620,15 +609,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>300</v>
@@ -636,7 +625,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -644,7 +633,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>150</v>

--- a/Health/Covid19/HealthCareFacilitiesSG.xlsx
+++ b/Health/Covid19/HealthCareFacilitiesSG.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EA57EF-B3F2-4EC5-9955-4F814A2EC22A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE469D36-21E7-4FA9-BA4A-76F00609E792}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A75E4CCB-0515-46AF-865D-9FCABA4166B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Number of Beds In SG" sheetId="4" r:id="rId1"/>
     <sheet name="Manpower" sheetId="5" r:id="rId2"/>
+    <sheet name="SIA Airline Crew" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Hospital (Isolation Bed)</t>
   </si>
@@ -56,9 +57,6 @@
   </si>
   <si>
     <t>Hospital (Intensive Care Unit)</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Singapore Airlines (SIA) cabin crew</t>
@@ -161,9 +159,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615B0E85-E2EC-4483-AC49-6BEDFE0B6905}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,15 +544,6 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8">
-        <f>SUM(B2:B7)</f>
-        <v>18386</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -563,10 +552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ABAF8D-C8AA-4408-A9DD-98419F8955F6}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,65 +566,89 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6419AA51-FA52-42F4-9610-3A77B07A068C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>3000</v>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
         <v>150</v>
       </c>
     </row>
